--- a/dashboard2/dashboard/views/Views.xlsx
+++ b/dashboard2/dashboard/views/Views.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>id</t>
   </si>
@@ -37,6 +37,15 @@
   </si>
   <si>
     <t xml:space="preserve">x, y, sz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">me</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gp_me</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sx, sy, ssz</t>
   </si>
 </sst>
 </file>
@@ -455,6 +464,34 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/dashboard2/dashboard/views/Views.xlsx
+++ b/dashboard2/dashboard/views/Views.xlsx
@@ -492,6 +492,34 @@
         <v>10</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/dashboard2/dashboard/views/Views.xlsx
+++ b/dashboard2/dashboard/views/Views.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>id</t>
   </si>
@@ -30,22 +30,46 @@
     <t>demo</t>
   </si>
   <si>
-    <t xml:space="preserve">news</t>
-  </si>
-  <si>
-    <t xml:space="preserve">names</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x, y, sz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">me</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gp_me</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sx, sy, ssz</t>
+    <t xml:space="preserve">new view</t>
+  </si>
+  <si>
+    <t xml:space="preserve">college_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">admited_no, alloted_no, no_of_seat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new  view with alert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Available, course_id, no_of_seat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">course_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">admited_no, alloted_no, Available, total_admited_no</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">asd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">portal_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Available, college_id, run_order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dsad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">admited_no, alloted_no, course_id</t>
   </si>
 </sst>
 </file>
@@ -397,7 +421,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
@@ -455,13 +479,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -469,13 +493,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
@@ -483,13 +507,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
@@ -497,13 +521,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
@@ -511,13 +535,979 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
         <v>8</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
         <v>9</v>
       </c>
-      <c r="D8" t="s">
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
         <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>13</v>
+      </c>
+      <c r="C65" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>13</v>
+      </c>
+      <c r="C66" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>13</v>
+      </c>
+      <c r="C68" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>13</v>
+      </c>
+      <c r="C69" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>13</v>
+      </c>
+      <c r="C70" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" t="s">
+        <v>13</v>
+      </c>
+      <c r="D72" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>13</v>
+      </c>
+      <c r="C73" t="s">
+        <v>13</v>
+      </c>
+      <c r="D73" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>13</v>
+      </c>
+      <c r="C74" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>13</v>
+      </c>
+      <c r="C75" t="s">
+        <v>13</v>
+      </c>
+      <c r="D75" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>13</v>
+      </c>
+      <c r="C76" t="s">
+        <v>13</v>
+      </c>
+      <c r="D76" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>13</v>
+      </c>
+      <c r="C77" t="s">
+        <v>13</v>
+      </c>
+      <c r="D77" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/dashboard2/dashboard/views/Views.xlsx
+++ b/dashboard2/dashboard/views/Views.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>id</t>
   </si>
@@ -45,10 +45,19 @@
     <t xml:space="preserve">portal_code</t>
   </si>
   <si>
+    <t xml:space="preserve">admited_no, Available, course_id, no_of_seat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEMO1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">admited_no, alloted_no, no_of_seat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FFFF</t>
+  </si>
+  <si>
     <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">admited_no, base_seat_yug</t>
   </si>
 </sst>
 </file>
@@ -400,7 +409,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
@@ -472,13 +481,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
@@ -486,13 +495,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
